--- a/qs_reports/combined_metrics_34.xlsx
+++ b/qs_reports/combined_metrics_34.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2541051.33</v>
+        <v>2164011.04</v>
       </c>
       <c r="C4" t="n">
         <v>3177168.85</v>
@@ -589,7 +589,7 @@
         <v>3177168.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3170808.65</v>
+        <v>3436474.83</v>
       </c>
       <c r="I4" t="n">
         <v>3146646.01</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.06</v>
+        <v>6.95</v>
       </c>
       <c r="C5" t="n">
         <v>7.22</v>
@@ -626,7 +626,7 @@
         <v>7.22</v>
       </c>
       <c r="H5" t="n">
-        <v>7.22</v>
+        <v>7.28</v>
       </c>
       <c r="I5" t="n">
         <v>7.22</v>
@@ -737,10 +737,10 @@
         <v>0.72</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="I8" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="J8" t="n">
         <v>0.72</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="C9" t="n">
         <v>1.31</v>
@@ -774,7 +774,7 @@
         <v>1.31</v>
       </c>
       <c r="H9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I9" t="n">
         <v>1.31</v>
@@ -796,7 +796,7 @@
         <v>1.37</v>
       </c>
       <c r="C10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="D10" t="n">
         <v>1.36</v>
@@ -811,10 +811,10 @@
         <v>1.19</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="I10" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="J10" t="n">
         <v>1.19</v>
@@ -848,7 +848,7 @@
         <v>0.93</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I11" t="n">
         <v>0.93</v>
@@ -885,10 +885,10 @@
         <v>0.84</v>
       </c>
       <c r="H12" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="J12" t="n">
         <v>0.84</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="D13" t="n">
         <v>2.01</v>
@@ -922,10 +922,10 @@
         <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="J13" t="n">
         <v>1.88</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-47.57</v>
+        <v>-47.83</v>
       </c>
       <c r="C14" t="n">
         <v>-57.51</v>
@@ -959,7 +959,7 @@
         <v>-57.51</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.07</v>
+        <v>-44.84</v>
       </c>
       <c r="I14" t="n">
         <v>-57.51</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2132</v>
+        <v>2222</v>
       </c>
       <c r="C15" t="n">
         <v>2314</v>
@@ -996,7 +996,7 @@
         <v>2314</v>
       </c>
       <c r="H15" t="n">
-        <v>1673</v>
+        <v>2130</v>
       </c>
       <c r="I15" t="n">
         <v>2314</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.84</v>
+        <v>7.77</v>
       </c>
       <c r="C16" t="n">
         <v>9.470000000000001</v>
@@ -1033,7 +1033,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="I16" t="n">
         <v>9.470000000000001</v>
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="D17" t="n">
         <v>0.97</v>
@@ -1070,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.1</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="J18" t="n">
         <v>-0.09</v>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C20" t="n">
         <v>0.35</v>
@@ -1181,7 +1181,7 @@
         <v>0.35</v>
       </c>
       <c r="H20" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I20" t="n">
         <v>0.35</v>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.56</v>
+        <v>7.77</v>
       </c>
       <c r="C21" t="n">
         <v>8.19</v>
@@ -1218,7 +1218,7 @@
         <v>8.19</v>
       </c>
       <c r="H21" t="n">
-        <v>7.57</v>
+        <v>7.41</v>
       </c>
       <c r="I21" t="n">
         <v>8.19</v>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>0.58</v>
@@ -1255,7 +1255,7 @@
         <v>0.58</v>
       </c>
       <c r="H22" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I22" t="n">
         <v>0.58</v>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>0.58</v>
@@ -1292,7 +1292,7 @@
         <v>0.58</v>
       </c>
       <c r="H23" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I23" t="n">
         <v>0.58</v>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.04</v>
+        <v>6.93</v>
       </c>
       <c r="C24" t="n">
         <v>7.21</v>
@@ -1329,7 +1329,7 @@
         <v>7.21</v>
       </c>
       <c r="H24" t="n">
-        <v>7.2</v>
+        <v>7.26</v>
       </c>
       <c r="I24" t="n">
         <v>7.2</v>
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.64</v>
+        <v>31.22</v>
       </c>
       <c r="C25" t="n">
-        <v>27.76</v>
+        <v>27.3</v>
       </c>
       <c r="D25" t="n">
         <v>30.84</v>
@@ -1366,10 +1366,10 @@
         <v>29.04</v>
       </c>
       <c r="H25" t="n">
-        <v>33.82</v>
+        <v>31.74</v>
       </c>
       <c r="I25" t="n">
-        <v>27.34</v>
+        <v>27.63</v>
       </c>
       <c r="J25" t="n">
         <v>29.05</v>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.12</v>
+        <v>-3.1</v>
       </c>
       <c r="C27" t="n">
         <v>-3.88</v>
@@ -1440,7 +1440,7 @@
         <v>-3.88</v>
       </c>
       <c r="H27" t="n">
-        <v>-3.11</v>
+        <v>-3.12</v>
       </c>
       <c r="I27" t="n">
         <v>-3.88</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.12</v>
+        <v>-3.1</v>
       </c>
       <c r="C28" t="n">
         <v>-3.88</v>
@@ -1477,7 +1477,7 @@
         <v>-3.88</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.11</v>
+        <v>-3.12</v>
       </c>
       <c r="I28" t="n">
         <v>-3.88</v>
@@ -1514,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I29" t="n">
         <v>14</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C31" t="n">
         <v>0.88</v>
@@ -1588,7 +1588,7 @@
         <v>0.88</v>
       </c>
       <c r="H31" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="I31" t="n">
         <v>0.88</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C32" t="n">
         <v>0.88</v>
@@ -1625,7 +1625,7 @@
         <v>0.88</v>
       </c>
       <c r="H32" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="I32" t="n">
         <v>0.88</v>
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="C33" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="D33" t="n">
         <v>1.18</v>
@@ -1662,10 +1662,10 @@
         <v>1.12</v>
       </c>
       <c r="H33" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J33" t="n">
         <v>1.12</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="C34" t="n">
         <v>1.88</v>
@@ -1699,7 +1699,7 @@
         <v>1.88</v>
       </c>
       <c r="H34" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="I34" t="n">
         <v>1.88</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="C35" t="n">
         <v>2.37</v>
@@ -1736,7 +1736,7 @@
         <v>2.37</v>
       </c>
       <c r="H35" t="n">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="I35" t="n">
         <v>2.37</v>
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="C36" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="D36" t="n">
         <v>1.48</v>
@@ -1773,10 +1773,10 @@
         <v>1.32</v>
       </c>
       <c r="H36" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I36" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="J36" t="n">
         <v>1.32</v>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="C37" t="n">
         <v>1.26</v>
@@ -1810,7 +1810,7 @@
         <v>1.26</v>
       </c>
       <c r="H37" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="I37" t="n">
         <v>1.26</v>
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="C38" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="D38" t="n">
         <v>3.68</v>
@@ -1847,10 +1847,10 @@
         <v>3.41</v>
       </c>
       <c r="H38" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="I38" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="J38" t="n">
         <v>3.41</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="C39" t="n">
         <v>3.08</v>
@@ -1884,10 +1884,10 @@
         <v>3.67</v>
       </c>
       <c r="H39" t="n">
-        <v>3.88</v>
+        <v>4.01</v>
       </c>
       <c r="I39" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="J39" t="n">
         <v>3.67</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="C41" t="n">
         <v>2.72</v>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="C42" t="n">
         <v>4.97</v>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.53</v>
+        <v>7.58</v>
       </c>
       <c r="C43" t="n">
         <v>10.26</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="C44" t="n">
         <v>2.06</v>
@@ -2069,7 +2069,7 @@
         <v>2.06</v>
       </c>
       <c r="H44" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="I44" t="n">
         <v>2.06</v>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="C45" t="n">
         <v>2.11</v>
@@ -2106,7 +2106,7 @@
         <v>2.11</v>
       </c>
       <c r="H45" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="I45" t="n">
         <v>2.11</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.24</v>
+        <v>5.31</v>
       </c>
       <c r="C46" t="n">
         <v>6.37</v>
@@ -2143,7 +2143,7 @@
         <v>6.37</v>
       </c>
       <c r="H46" t="n">
-        <v>6.28</v>
+        <v>6.31</v>
       </c>
       <c r="I46" t="n">
         <v>6.37</v>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5.22</v>
+        <v>4.99</v>
       </c>
       <c r="C47" t="n">
         <v>7.29</v>
@@ -2180,7 +2180,7 @@
         <v>7.29</v>
       </c>
       <c r="H47" t="n">
-        <v>6.3</v>
+        <v>5.42</v>
       </c>
       <c r="I47" t="n">
         <v>7.29</v>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.06</v>
+        <v>6.95</v>
       </c>
       <c r="C48" t="n">
         <v>7.22</v>
@@ -2217,7 +2217,7 @@
         <v>7.22</v>
       </c>
       <c r="H48" t="n">
-        <v>7.22</v>
+        <v>7.28</v>
       </c>
       <c r="I48" t="n">
         <v>7.22</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18.3</v>
+        <v>18.31</v>
       </c>
       <c r="C49" t="n">
         <v>23.02</v>
@@ -2254,7 +2254,7 @@
         <v>23.02</v>
       </c>
       <c r="H49" t="n">
-        <v>18.7</v>
+        <v>19.19</v>
       </c>
       <c r="I49" t="n">
         <v>23.02</v>
@@ -2291,7 +2291,7 @@
         <v>-15.95</v>
       </c>
       <c r="H50" t="n">
-        <v>-12.89</v>
+        <v>-12.54</v>
       </c>
       <c r="I50" t="n">
         <v>-15.95</v>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>18.3</v>
+        <v>18.31</v>
       </c>
       <c r="C51" t="n">
         <v>23.02</v>
@@ -2328,7 +2328,7 @@
         <v>23.02</v>
       </c>
       <c r="H51" t="n">
-        <v>18.7</v>
+        <v>19.19</v>
       </c>
       <c r="I51" t="n">
         <v>23.02</v>
@@ -2365,7 +2365,7 @@
         <v>-15.95</v>
       </c>
       <c r="H52" t="n">
-        <v>-12.89</v>
+        <v>-12.54</v>
       </c>
       <c r="I52" t="n">
         <v>-15.95</v>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>33.25</v>
+        <v>35.63</v>
       </c>
       <c r="C53" t="n">
         <v>32.09</v>
@@ -2402,7 +2402,7 @@
         <v>32.09</v>
       </c>
       <c r="H53" t="n">
-        <v>32.26</v>
+        <v>37.54</v>
       </c>
       <c r="I53" t="n">
         <v>32.09</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-21.27</v>
+        <v>-21.63</v>
       </c>
       <c r="C54" t="n">
         <v>-25.2</v>
@@ -2439,7 +2439,7 @@
         <v>-25.2</v>
       </c>
       <c r="H54" t="n">
-        <v>-22.76</v>
+        <v>-20.68</v>
       </c>
       <c r="I54" t="n">
         <v>-25.2</v>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-3.02</v>
+        <v>-2.99</v>
       </c>
       <c r="C55" t="n">
         <v>-3.87</v>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C56" t="n">
         <v>176</v>
@@ -2513,7 +2513,7 @@
         <v>176</v>
       </c>
       <c r="H56" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="I56" t="n">
         <v>176</v>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>53422.62</v>
+        <v>45243.83</v>
       </c>
       <c r="C57" t="n">
         <v>55241.06</v>
@@ -2550,7 +2550,7 @@
         <v>55241.06</v>
       </c>
       <c r="H57" t="n">
-        <v>68833.17</v>
+        <v>76644.05</v>
       </c>
       <c r="I57" t="n">
         <v>54710.37</v>
@@ -2587,7 +2587,7 @@
         <v>0.08</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I58" t="n">
         <v>0.08</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>89547.60000000001</v>
+        <v>70931.17999999999</v>
       </c>
       <c r="C59" t="n">
         <v>70582.88</v>
@@ -2624,7 +2624,7 @@
         <v>70582.88</v>
       </c>
       <c r="H59" t="n">
-        <v>134378.11</v>
+        <v>128296.44</v>
       </c>
       <c r="I59" t="n">
         <v>69905.48</v>
@@ -2646,7 +2646,7 @@
         <v>1.93</v>
       </c>
       <c r="C60" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="D60" t="n">
         <v>1.83</v>
@@ -2661,10 +2661,10 @@
         <v>2.15</v>
       </c>
       <c r="H60" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="I60" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="J60" t="n">
         <v>2.15</v>
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.63</v>
+        <v>-1.64</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.06</v>
+        <v>-2.09</v>
       </c>
       <c r="D61" t="n">
         <v>-1.55</v>
@@ -2698,10 +2698,10 @@
         <v>-1.92</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.6</v>
+        <v>-1.66</v>
       </c>
       <c r="I61" t="n">
-        <v>-2.05</v>
+        <v>-2.09</v>
       </c>
       <c r="J61" t="n">
         <v>-1.92</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>62.91</v>
+        <v>62.79</v>
       </c>
       <c r="C62" t="n">
         <v>62.51</v>
@@ -2735,7 +2735,7 @@
         <v>62.51</v>
       </c>
       <c r="H62" t="n">
-        <v>64.09</v>
+        <v>62.79</v>
       </c>
       <c r="I62" t="n">
         <v>62.49</v>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>62.91</v>
+        <v>62.79</v>
       </c>
       <c r="C63" t="n">
         <v>62.51</v>
@@ -2772,7 +2772,7 @@
         <v>62.51</v>
       </c>
       <c r="H63" t="n">
-        <v>64.09</v>
+        <v>62.79</v>
       </c>
       <c r="I63" t="n">
         <v>62.49</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>69.23999999999999</v>
+        <v>69.92</v>
       </c>
       <c r="C64" t="n">
         <v>69.08</v>
@@ -2809,7 +2809,7 @@
         <v>69.08</v>
       </c>
       <c r="H64" t="n">
-        <v>70.25</v>
+        <v>70.42</v>
       </c>
       <c r="I64" t="n">
         <v>69.02</v>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>78.52</v>
+        <v>79.19</v>
       </c>
       <c r="C65" t="n">
         <v>77.18000000000001</v>
@@ -2846,7 +2846,7 @@
         <v>77.18000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>80.54000000000001</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="I65" t="n">
         <v>77.18000000000001</v>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.79</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>96.81</v>
+        <v>92.78</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>95.5</v>
+        <v>83</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3171575.17</v>
+        <v>2843176.11</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>4015008.6</v>
+        <v>4980371.15</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
